--- a/Technology/ServiceNow.xlsx
+++ b/Technology/ServiceNow.xlsx
@@ -8,32 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD38919-C672-0F40-8184-96BFF0AB7EA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE30727F-CE2B-C943-A20A-BEB97F3A020F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="500" windowWidth="27620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="500" windowWidth="27620" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">'Sheet 1'!$B$106:$Q$106</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">'Sheet 1'!$B$19:$Q$19</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">'Sheet 1'!$B$3:$Q$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$106:$Q$106</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$19:$Q$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$3:$Q$3</definedName>
-    <definedName name="_xlchart.v2.10" hidden="1">'Sheet 1'!$B$3:$Q$3</definedName>
-    <definedName name="_xlchart.v2.5" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v2.6" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v2.7" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v2.8" hidden="1">'Sheet 1'!$B$106:$Q$106</definedName>
-    <definedName name="_xlchart.v2.9" hidden="1">'Sheet 1'!$B$19:$Q$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -52,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="161">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -532,6 +513,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Net Cash</t>
   </si>
 </sst>
 </file>
@@ -874,7 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,18 +919,6 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -984,12 +956,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1011,6 +977,27 @@
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2489,10 +2476,10 @@
   <dimension ref="A1:Z118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O55" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="S123" sqref="S123"/>
+      <selection pane="bottomRight" activeCell="S68" sqref="S68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3592,7 +3579,7 @@
         <v>38.776346065347447</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>12</v>
       </c>
@@ -3645,7 +3632,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" ht="20" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>13</v>
       </c>
@@ -3697,8 +3684,11 @@
       <c r="Q18" s="1">
         <v>433000000</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+      <c r="W18" s="18" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>14</v>
       </c>
@@ -3750,8 +3740,12 @@
       <c r="Q19" s="10">
         <v>859000000</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="19" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W19" s="67">
+        <f>Q40-Q56-Q61</f>
+        <v>2048000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>102</v>
       </c>
@@ -3817,7 +3811,7 @@
         <v>0.14686248331108143</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>15</v>
       </c>
@@ -3870,7 +3864,7 @@
         <v>0.1186</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>16</v>
       </c>
@@ -3923,7 +3917,7 @@
         <v>355000000</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>17</v>
       </c>
@@ -3976,7 +3970,7 @@
         <v>4.9000000000000002E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>18</v>
       </c>
@@ -4029,7 +4023,7 @@
         <v>44000000</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>19</v>
       </c>
@@ -4082,7 +4076,7 @@
         <v>399000000</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>20</v>
       </c>
@@ -4135,7 +4129,7 @@
         <v>5.5100000000000003E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>21</v>
       </c>
@@ -4188,7 +4182,7 @@
         <v>74000000</v>
       </c>
     </row>
-    <row r="28" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>22</v>
       </c>
@@ -4241,7 +4235,7 @@
         <v>325000000</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>103</v>
       </c>
@@ -4307,7 +4301,7 @@
         <v>0.41304347826086962</v>
       </c>
     </row>
-    <row r="30" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>23</v>
       </c>
@@ -4360,7 +4354,7 @@
         <v>4.4900000000000002E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>24</v>
       </c>
@@ -4413,7 +4407,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="32" spans="1:17" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>25</v>
       </c>
@@ -7197,10 +7191,10 @@
       <c r="Q83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X83" s="32" t="s">
+      <c r="X83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="Y83" s="33"/>
+      <c r="Y83" s="62"/>
     </row>
     <row r="84" spans="1:25" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -7254,10 +7248,10 @@
       <c r="Q84" s="1">
         <v>172000000</v>
       </c>
-      <c r="X84" s="34" t="s">
+      <c r="X84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="Y84" s="35"/>
+      <c r="Y84" s="64"/>
     </row>
     <row r="85" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -7491,10 +7485,10 @@
       <c r="Q88" s="1">
         <v>-550000000</v>
       </c>
-      <c r="X88" s="36" t="s">
+      <c r="X88" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="Y88" s="37">
+      <c r="Y88" s="33">
         <f>Y85/(Y86+Y87)</f>
         <v>1.2096774193548387E-2</v>
       </c>
@@ -7687,10 +7681,10 @@
       <c r="Q91" s="1">
         <v>-4205000000</v>
       </c>
-      <c r="X91" s="36" t="s">
+      <c r="X91" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="Y91" s="37">
+      <c r="Y91" s="33">
         <f>Y89/Y90</f>
         <v>0.18546365914786966</v>
       </c>
@@ -7747,10 +7741,10 @@
       <c r="Q92" s="1">
         <v>2245000000</v>
       </c>
-      <c r="X92" s="38" t="s">
+      <c r="X92" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="Y92" s="39">
+      <c r="Y92" s="35">
         <f>Y88*(1-Y91)</f>
         <v>9.853262187727382E-3</v>
       </c>
@@ -7807,10 +7801,10 @@
       <c r="Q93" s="1">
         <v>18000000</v>
       </c>
-      <c r="X93" s="34" t="s">
+      <c r="X93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="Y93" s="35"/>
+      <c r="Y93" s="64"/>
     </row>
     <row r="94" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -7867,7 +7861,7 @@
       <c r="X94" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="Y94" s="40">
+      <c r="Y94" s="36">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -7923,10 +7917,10 @@
       <c r="Q95" s="1">
         <v>-94000000</v>
       </c>
-      <c r="X95" s="41" t="s">
+      <c r="X95" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="Y95" s="42">
+      <c r="Y95" s="38">
         <v>1.03</v>
       </c>
     </row>
@@ -7985,7 +7979,7 @@
       <c r="X96" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="Y96" s="40">
+      <c r="Y96" s="36">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -8041,10 +8035,10 @@
       <c r="Q97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X97" s="38" t="s">
+      <c r="X97" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="Y97" s="39">
+      <c r="Y97" s="35">
         <f>(Y94)+((Y95)*(Y96-Y94))</f>
         <v>8.5291500000000006E-2</v>
       </c>
@@ -8101,10 +8095,10 @@
       <c r="Q98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="X98" s="34" t="s">
+      <c r="X98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="Y98" s="35"/>
+      <c r="Y98" s="64"/>
     </row>
     <row r="99" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -8218,10 +8212,10 @@
       <c r="Q100" s="10">
         <v>-344000000</v>
       </c>
-      <c r="X100" s="36" t="s">
+      <c r="X100" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="Y100" s="37">
+      <c r="Y100" s="33">
         <f>Y99/Y103</f>
         <v>2.580555651902466E-2</v>
       </c>
@@ -8278,10 +8272,10 @@
       <c r="Q101" s="1">
         <v>-53000000</v>
       </c>
-      <c r="X101" s="41" t="s">
+      <c r="X101" s="37" t="s">
         <v>142</v>
       </c>
-      <c r="Y101" s="43">
+      <c r="Y101" s="39">
         <v>84261000000</v>
       </c>
     </row>
@@ -8337,10 +8331,10 @@
       <c r="Q102" s="10">
         <v>-257000000</v>
       </c>
-      <c r="X102" s="36" t="s">
+      <c r="X102" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="Y102" s="37">
+      <c r="Y102" s="33">
         <f>Y101/Y103</f>
         <v>0.97419444348097539</v>
       </c>
@@ -8397,10 +8391,10 @@
       <c r="Q103" s="1">
         <v>1732000000</v>
       </c>
-      <c r="X103" s="38" t="s">
+      <c r="X103" s="34" t="s">
         <v>144</v>
       </c>
-      <c r="Y103" s="44">
+      <c r="Y103" s="40">
         <f>Y99+Y101</f>
         <v>86493000000</v>
       </c>
@@ -8457,10 +8451,10 @@
       <c r="Q104" s="11">
         <v>1475000000</v>
       </c>
-      <c r="X104" s="34" t="s">
+      <c r="X104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="Y104" s="35"/>
+      <c r="Y104" s="64"/>
     </row>
     <row r="105" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -8593,33 +8587,33 @@
       <c r="Q106" s="1">
         <v>2173000000</v>
       </c>
-      <c r="R106" s="45">
+      <c r="R106" s="41">
         <f>Q106*(1+$Y$106)</f>
         <v>2606450180.7373028</v>
       </c>
-      <c r="S106" s="45">
+      <c r="S106" s="41">
         <f t="shared" ref="S106:V106" si="17">R106*(1+$Y$106)</f>
         <v>3126361042.1838555</v>
       </c>
-      <c r="T106" s="45">
+      <c r="T106" s="41">
         <f t="shared" si="17"/>
         <v>3749978970.7547965</v>
       </c>
-      <c r="U106" s="45">
+      <c r="U106" s="41">
         <f t="shared" si="17"/>
         <v>4497990504.4109173</v>
       </c>
-      <c r="V106" s="45">
+      <c r="V106" s="41">
         <f t="shared" si="17"/>
         <v>5395208542.649106</v>
       </c>
-      <c r="W106" s="46" t="s">
+      <c r="W106" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="X106" s="47" t="s">
+      <c r="X106" s="43" t="s">
         <v>147</v>
       </c>
-      <c r="Y106" s="48">
+      <c r="Y106" s="44">
         <f>(SUM(R4:V4)/5)</f>
         <v>0.19947086090073757</v>
       </c>
@@ -8642,150 +8636,150 @@
       <c r="O107" s="13"/>
       <c r="P107" s="13"/>
       <c r="Q107" s="13"/>
-      <c r="R107" s="46"/>
-      <c r="S107" s="46"/>
-      <c r="T107" s="46"/>
-      <c r="U107" s="46"/>
-      <c r="V107" s="49">
+      <c r="R107" s="42"/>
+      <c r="S107" s="42"/>
+      <c r="T107" s="42"/>
+      <c r="U107" s="42"/>
+      <c r="V107" s="45">
         <f>V106*(1+Y107)/(Y108-Y107)</f>
         <v>104172618083.87654</v>
       </c>
-      <c r="W107" s="50" t="s">
+      <c r="W107" s="46" t="s">
         <v>148</v>
       </c>
-      <c r="X107" s="51" t="s">
+      <c r="X107" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="Y107" s="52">
+      <c r="Y107" s="48">
         <v>0.03</v>
       </c>
     </row>
     <row r="108" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R108" s="49">
+      <c r="R108" s="45">
         <f t="shared" ref="R108:T108" si="18">R107+R106</f>
         <v>2606450180.7373028</v>
       </c>
-      <c r="S108" s="49">
+      <c r="S108" s="45">
         <f t="shared" si="18"/>
         <v>3126361042.1838555</v>
       </c>
-      <c r="T108" s="49">
+      <c r="T108" s="45">
         <f t="shared" si="18"/>
         <v>3749978970.7547965</v>
       </c>
-      <c r="U108" s="49">
+      <c r="U108" s="45">
         <f>U107+U106</f>
         <v>4497990504.4109173</v>
       </c>
-      <c r="V108" s="49">
+      <c r="V108" s="45">
         <f>V107+V106</f>
         <v>109567826626.52565</v>
       </c>
-      <c r="W108" s="50" t="s">
+      <c r="W108" s="46" t="s">
         <v>144</v>
       </c>
-      <c r="X108" s="53" t="s">
+      <c r="X108" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="Y108" s="54">
+      <c r="Y108" s="50">
         <f>Y105</f>
         <v>8.334477429043978E-2</v>
       </c>
     </row>
     <row r="109" spans="1:25" ht="19" x14ac:dyDescent="0.25">
-      <c r="R109" s="55" t="s">
+      <c r="R109" s="65" t="s">
         <v>151</v>
       </c>
-      <c r="S109" s="56"/>
+      <c r="S109" s="66"/>
     </row>
     <row r="110" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R110" s="57" t="s">
+      <c r="R110" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="S110" s="58">
+      <c r="S110" s="52">
         <f>NPV(Y108,R108,S108,T108,U108,V108)</f>
         <v>84710587646.167862</v>
       </c>
     </row>
     <row r="111" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R111" s="57" t="s">
+      <c r="R111" s="51" t="s">
         <v>153</v>
       </c>
-      <c r="S111" s="58">
+      <c r="S111" s="52">
         <f>Q40</f>
         <v>4280000000</v>
       </c>
     </row>
     <row r="112" spans="1:25" ht="20" x14ac:dyDescent="0.25">
-      <c r="R112" s="57" t="s">
+      <c r="R112" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="S112" s="58">
+      <c r="S112" s="52">
         <f>Y99</f>
         <v>2232000000</v>
       </c>
     </row>
     <row r="113" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R113" s="57" t="s">
+      <c r="R113" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="S113" s="58">
+      <c r="S113" s="52">
         <f>S110+S111-S112</f>
         <v>86758587646.167862</v>
       </c>
     </row>
     <row r="114" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R114" s="57" t="s">
+      <c r="R114" s="51" t="s">
         <v>155</v>
       </c>
-      <c r="S114" s="59">
-        <f>Q34</f>
-        <v>203535000</v>
+      <c r="S114" s="53">
+        <f>Q34*(1+(5*W16))</f>
+        <v>240126645.72531751</v>
       </c>
     </row>
     <row r="115" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R115" s="60" t="s">
+      <c r="R115" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="S115" s="61">
+      <c r="S115" s="55">
         <f>S113/S114</f>
-        <v>426.2588136987145</v>
+        <v>361.3034587815448</v>
       </c>
     </row>
     <row r="116" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R116" s="62" t="s">
+      <c r="R116" s="56" t="s">
         <v>157</v>
       </c>
-      <c r="S116" s="63">
+      <c r="S116" s="57">
         <v>415.08</v>
       </c>
     </row>
     <row r="117" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R117" s="64" t="s">
+      <c r="R117" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="S117" s="65">
+      <c r="S117" s="59">
         <f>S115/S116-1</f>
-        <v>2.6931708824116996E-2</v>
+        <v>-0.12955705217899005</v>
       </c>
     </row>
     <row r="118" spans="18:19" ht="20" x14ac:dyDescent="0.25">
-      <c r="R118" s="64" t="s">
+      <c r="R118" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="S118" s="66" t="str">
+      <c r="S118" s="60" t="str">
         <f>IF(S115&gt;S116,"BUY","SELL")</f>
-        <v>BUY</v>
+        <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="R109:S109"/>
     <mergeCell ref="X83:Y83"/>
     <mergeCell ref="X84:Y84"/>
     <mergeCell ref="X93:Y93"/>
     <mergeCell ref="X98:Y98"/>
     <mergeCell ref="X104:Y104"/>
-    <mergeCell ref="R109:S109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/NOW" display="ROIC.AI | NOW" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
